--- a/Tableau de synthèse - Épreuve E4.xlsx
+++ b/Tableau de synthèse - Épreuve E4.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\JANUEL\E4-Portfolio\Portfolio\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stagiaireit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFD2884-5286-449B-9295-D99DBEFD839D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$43</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -78,112 +79,145 @@
 </t>
   </si>
   <si>
-    <t>Compétences mises en œuvre
+    <t xml:space="preserve">N° candidat : </t>
+  </si>
+  <si>
+    <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
+  </si>
+  <si>
+    <t>Réalisations en milieu professionnel en cours de seconde année</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>NOM et prénom : TERRIER Evann</t>
+  </si>
+  <si>
+    <t>Centre de formation : Lycée George Brassens BTS SIO 1ere année</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisation de GIT / GIT HUB pour un travaille en groupe et mettre en commun les différents travaux. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilisation / Gestion de base de données </t>
+  </si>
+  <si>
+    <t>Utilisation de Kanban pour planifier des tâches.</t>
+  </si>
+  <si>
+    <t>Programmation en PHP / JS / HTML / CSS / PYTHON</t>
+  </si>
+  <si>
+    <t>Certification en Lua</t>
+  </si>
+  <si>
+    <t>Mise en place de veille technologique</t>
+  </si>
+  <si>
+    <t>Sauvegarde/restauration de base de données avec phpMyAdmin ou en ligne de commande</t>
+  </si>
+  <si>
+    <t>Correction de bugs signalés par un camarade</t>
+  </si>
+  <si>
+    <t>Aide à un camarade pour déboguer un script ou une requête SQL</t>
+  </si>
+  <si>
+    <t>Test d’une fonctionnalité sur plusieurs navigateurs pour corriger un affichage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création d’une page web responsive pour un projet (accueil, contact, etc.) </t>
+  </si>
+  <si>
+    <t>Intégration d’un carrousel ou d’une galerie dynamique avec JavaScript</t>
+  </si>
+  <si>
+    <t>Ajout de métadonnées HTML pour le référencement (balises meta, titres)</t>
+  </si>
+  <si>
+    <t>Travail en binôme ou trinôme avec partage des responsabilités</t>
+  </si>
+  <si>
+    <t>Présentation orale ou écrite de l’avancement d’un projet</t>
+  </si>
+  <si>
+    <t>Évaluation de la charge de travail et ajustement des délais</t>
+  </si>
+  <si>
+    <t>Création d’un CV ou d’un profil LinkedIn</t>
+  </si>
+  <si>
+    <t>Consultation régulière de sites comme Stack Overflow, GitHub, ZDNet, Developpez.com</t>
+  </si>
+  <si>
+    <t>Réalisations en milieu professionnel en cours de première année</t>
+  </si>
+  <si>
+    <t>Vérification des droits d’accès à un répertoire ou à une page web (PHP/session)</t>
+  </si>
+  <si>
+    <t>Mise à jour de mon portfolio et dépôt GitHub personnel</t>
+  </si>
+  <si>
+    <t>Suivi d’un cours en ligne ou d’un tuto (OpenClassrooms, YouTube, …)</t>
+  </si>
+  <si>
+    <t>Modification d’un formulaire ou d’une fonctionnalité après retour enseignant</t>
+  </si>
+  <si>
+    <t>SLAM</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="26"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Compétences mises en œuvre</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="22"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 Réalisations professionnelles
 (intitulé et liste des documents et productions associés)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
-    <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
-  </si>
-  <si>
-    <t>Réalisations en milieu professionnel en cours de seconde année</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>NOM et prénom : TERRIER Evann</t>
-  </si>
-  <si>
-    <t>Centre de formation : Lycée George Brassens BTS SIO 1ere année</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilisation de GIT / GIT HUB pour un travaille en groupe et mettre en commun les différents travaux. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilisation / Gestion de base de données </t>
-  </si>
-  <si>
-    <t>Utilisation de Kanban pour planifier des tâches.</t>
-  </si>
-  <si>
-    <t>Programmation en PHP / JS / HTML / CSS / PYTHON</t>
-  </si>
-  <si>
-    <t>Certification en Lua</t>
-  </si>
-  <si>
-    <t>Mise en place de veille technologique</t>
-  </si>
-  <si>
-    <t>Sauvegarde/restauration de base de données avec phpMyAdmin ou en ligne de commande</t>
-  </si>
-  <si>
-    <t>Correction de bugs signalés par un camarade</t>
-  </si>
-  <si>
-    <t>Aide à un camarade pour déboguer un script ou une requête SQL</t>
-  </si>
-  <si>
-    <t>Test d’une fonctionnalité sur plusieurs navigateurs pour corriger un affichage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Création d’une page web responsive pour un projet (accueil, contact, etc.) </t>
-  </si>
-  <si>
-    <t>Intégration d’un carrousel ou d’une galerie dynamique avec JavaScript</t>
-  </si>
-  <si>
-    <t>Ajout de métadonnées HTML pour le référencement (balises meta, titres)</t>
-  </si>
-  <si>
-    <t>Travail en binôme ou trinôme avec partage des responsabilités</t>
-  </si>
-  <si>
-    <t>Présentation orale ou écrite de l’avancement d’un projet</t>
-  </si>
-  <si>
-    <t>Évaluation de la charge de travail et ajustement des délais</t>
-  </si>
-  <si>
-    <t>Création d’un CV ou d’un profil LinkedIn</t>
-  </si>
-  <si>
-    <t>Consultation régulière de sites comme Stack Overflow, GitHub, ZDNet, Developpez.com</t>
-  </si>
-  <si>
-    <t>Réalisations en milieu professionnel en cours de première année</t>
-  </si>
-  <si>
-    <t>Vérification des droits d’accès à un répertoire ou à une page web (PHP/session)</t>
-  </si>
-  <si>
-    <t>02/09/2024 - 27/06/2025</t>
-  </si>
-  <si>
-    <t>Mise à jour de mon portfolio et dépôt GitHub personnel</t>
-  </si>
-  <si>
-    <t>Suivi d’un cours en ligne ou d’un tuto (OpenClassrooms, YouTube, …)</t>
-  </si>
-  <si>
-    <t>Modification d’un formulaire ou d’une fonctionnalité après retour enseignant</t>
-  </si>
-  <si>
-    <t>SLAM</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">   02/09/2024 - 27/06/2025</t>
+  </si>
+  <si>
+    <t>Rédaction d'une procédure reproduisant les étapes de configuration de mon projet dans mon stage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -311,6 +345,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="26"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -356,12 +410,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -369,6 +417,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,7 +648,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -683,29 +737,26 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -737,15 +788,24 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Euro" xfId="1"/>
+    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Insatisfaisant" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -838,6 +898,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -873,6 +950,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1048,14 +1142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP88"/>
+  <dimension ref="A1:AP89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1072,64 +1166,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:42" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:42" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="44"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="43"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:42" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44"/>
+      <c r="A4" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>15</v>
+      <c r="A5" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="29" t="s">
         <v>0</v>
@@ -1148,8 +1242,8 @@
       </c>
     </row>
     <row r="6" spans="1:42" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1202,15 +1296,15 @@
       <c r="AP6"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="40"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -1249,10 +1343,10 @@
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1297,10 +1391,10 @@
     </row>
     <row r="9" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>40</v>
+        <v>29</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1345,10 +1439,10 @@
     </row>
     <row r="10" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="6"/>
@@ -1393,10 +1487,10 @@
     </row>
     <row r="11" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="37" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1441,10 +1535,10 @@
     </row>
     <row r="12" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1489,10 +1583,10 @@
     </row>
     <row r="13" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1537,10 +1631,10 @@
     </row>
     <row r="14" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1585,10 +1679,10 @@
     </row>
     <row r="15" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="6"/>
@@ -1633,10 +1727,10 @@
     </row>
     <row r="16" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="6"/>
@@ -1681,10 +1775,10 @@
     </row>
     <row r="17" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>40</v>
+        <v>26</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="15"/>
@@ -1729,10 +1823,10 @@
     </row>
     <row r="18" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="15"/>
@@ -1777,10 +1871,10 @@
     </row>
     <row r="19" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="15"/>
@@ -1825,10 +1919,10 @@
     </row>
     <row r="20" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="15"/>
@@ -1873,13 +1967,13 @@
     </row>
     <row r="21" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>40</v>
+        <v>30</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="15"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="35"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
@@ -1921,10 +2015,10 @@
     </row>
     <row r="22" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1969,10 +2063,10 @@
     </row>
     <row r="23" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>40</v>
+        <v>32</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -2017,10 +2111,10 @@
     </row>
     <row r="24" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -2065,10 +2159,10 @@
     </row>
     <row r="25" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2113,10 +2207,10 @@
     </row>
     <row r="26" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="37" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2161,10 +2255,10 @@
     </row>
     <row r="27" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="37" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -2209,10 +2303,10 @@
     </row>
     <row r="28" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="37" t="s">
         <v>40</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -2255,17 +2349,17 @@
       <c r="AO28"/>
       <c r="AP28"/>
     </row>
-    <row r="29" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="37" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="19"/>
       <c r="G29" s="30"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -2303,16 +2397,18 @@
       <c r="AO29"/>
       <c r="AP29"/>
     </row>
-    <row r="30" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
+    <row r="30" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="16"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
@@ -2350,13 +2446,15 @@
       <c r="AP30"/>
     </row>
     <row r="31" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
+      <c r="A31" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2569,14 +2667,14 @@
       <c r="AO35"/>
       <c r="AP35"/>
     </row>
-    <row r="36" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
@@ -2613,16 +2711,14 @@
       <c r="AO36"/>
       <c r="AP36"/>
     </row>
-    <row r="37" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="40"/>
+    <row r="37" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="12"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
@@ -2657,15 +2753,18 @@
       <c r="AM37"/>
       <c r="AN37"/>
       <c r="AO37"/>
+      <c r="AP37"/>
     </row>
     <row r="38" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="7"/>
+      <c r="A38" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="39"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -2700,7 +2799,6 @@
       <c r="AM38"/>
       <c r="AN38"/>
       <c r="AO38"/>
-      <c r="AP38"/>
     </row>
     <row r="39" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="25"/>
@@ -2792,12 +2890,12 @@
     </row>
     <row r="41" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="25"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="9"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
@@ -2878,7 +2976,50 @@
       <c r="AO42"/>
       <c r="AP42"/>
     </row>
-    <row r="43" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="25"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+      <c r="AL43"/>
+      <c r="AM43"/>
+      <c r="AN43"/>
+      <c r="AO43"/>
+      <c r="AP43"/>
+    </row>
     <row r="44" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="45" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="46" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2920,17 +3061,15 @@
     <row r="82" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="83" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85"/>
-      <c r="B85"/>
-      <c r="C85"/>
-      <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85"/>
-      <c r="G85"/>
-    </row>
+    <row r="85" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87"/>
@@ -2938,10 +3077,13 @@
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88"/>
     </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A31:G31"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>

--- a/Tableau de synthèse - Épreuve E4.xlsx
+++ b/Tableau de synthèse - Épreuve E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stagiaireit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFD2884-5286-449B-9295-D99DBEFD839D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A00DE14-6027-43C9-A50D-F74F8910832E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,7 +217,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -288,12 +288,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -319,29 +313,8 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -362,6 +335,57 @@
       <b/>
       <i/>
       <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -686,12 +710,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -707,64 +725,49 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -788,19 +791,40 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1148,115 +1172,115 @@
   </sheetPr>
   <dimension ref="A1:AP89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:G31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="93.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="49.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="54.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.42578125" style="1" customWidth="1"/>
     <col min="8" max="42" width="11.42578125" customWidth="1"/>
     <col min="43" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
       <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:42" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="41" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="43"/>
+      <c r="G3" s="36"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:42" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="17" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:42" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="51"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="44" t="s">
         <v>11</v>
       </c>
       <c r="H6"/>
@@ -1296,15 +1320,15 @@
       <c r="AP6"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -1342,16 +1366,16 @@
       <c r="AP7"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="23"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="7"/>
       <c r="H8"/>
       <c r="I8"/>
@@ -1390,15 +1414,15 @@
       <c r="AP8"/>
     </row>
     <row r="9" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="36"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
       <c r="H9"/>
@@ -1438,15 +1462,15 @@
       <c r="AP9"/>
     </row>
     <row r="10" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="18"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="19"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
       <c r="H10"/>
@@ -1486,15 +1510,15 @@
       <c r="AP10"/>
     </row>
     <row r="11" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="35"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7"/>
       <c r="H11"/>
@@ -1534,16 +1558,16 @@
       <c r="AP11"/>
     </row>
     <row r="12" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="24"/>
+      <c r="F12" s="21"/>
       <c r="G12" s="7"/>
       <c r="H12"/>
       <c r="I12"/>
@@ -1582,17 +1606,17 @@
       <c r="AP12"/>
     </row>
     <row r="13" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="30"/>
+      <c r="G13" s="24"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -1630,17 +1654,17 @@
       <c r="AP13"/>
     </row>
     <row r="14" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="30"/>
+      <c r="G14" s="24"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -1678,17 +1702,17 @@
       <c r="AP14"/>
     </row>
     <row r="15" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="21"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="16"/>
+      <c r="G15" s="14"/>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
@@ -1726,17 +1750,17 @@
       <c r="AP15"/>
     </row>
     <row r="16" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="21"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="16"/>
+      <c r="G16" s="14"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -1774,14 +1798,14 @@
       <c r="AP16"/>
     </row>
     <row r="17" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="6"/>
-      <c r="D17" s="15"/>
+      <c r="D17" s="13"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -1822,14 +1846,14 @@
       <c r="AP17"/>
     </row>
     <row r="18" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="15"/>
+      <c r="D18" s="13"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
@@ -1870,14 +1894,14 @@
       <c r="AP18"/>
     </row>
     <row r="19" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="15"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
@@ -1918,14 +1942,14 @@
       <c r="AP19"/>
     </row>
     <row r="20" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="15"/>
+      <c r="D20" s="13"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="7"/>
@@ -1966,15 +1990,15 @@
       <c r="AP20"/>
     </row>
     <row r="21" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="35"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
       <c r="H21"/>
@@ -2014,15 +2038,15 @@
       <c r="AP21"/>
     </row>
     <row r="22" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="35"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
       <c r="H22"/>
@@ -2062,16 +2086,16 @@
       <c r="AP22"/>
     </row>
     <row r="23" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="24"/>
+      <c r="F23" s="21"/>
       <c r="G23" s="7"/>
       <c r="H23"/>
       <c r="I23"/>
@@ -2110,16 +2134,16 @@
       <c r="AP23"/>
     </row>
     <row r="24" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="24"/>
+      <c r="F24" s="21"/>
       <c r="G24" s="7"/>
       <c r="H24"/>
       <c r="I24"/>
@@ -2158,16 +2182,16 @@
       <c r="AP24"/>
     </row>
     <row r="25" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="24"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="7"/>
       <c r="H25"/>
       <c r="I25"/>
@@ -2206,17 +2230,17 @@
       <c r="AP25"/>
     </row>
     <row r="26" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="30"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="24"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -2254,17 +2278,17 @@
       <c r="AP26"/>
     </row>
     <row r="27" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="30"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="24"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -2302,17 +2326,17 @@
       <c r="AP27"/>
     </row>
     <row r="28" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="30"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="24"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
@@ -2350,17 +2374,17 @@
       <c r="AP28"/>
     </row>
     <row r="29" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="30"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="24"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -2398,17 +2422,17 @@
       <c r="AP29"/>
     </row>
     <row r="30" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="29" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="16"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="14"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
@@ -2446,15 +2470,15 @@
       <c r="AP30"/>
     </row>
     <row r="31" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2492,7 +2516,7 @@
       <c r="AP31"/>
     </row>
     <row r="32" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="3"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -2536,7 +2560,7 @@
       <c r="AP32"/>
     </row>
     <row r="33" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="3"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -2580,7 +2604,7 @@
       <c r="AP33"/>
     </row>
     <row r="34" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="3"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -2624,7 +2648,7 @@
       <c r="AP34"/>
     </row>
     <row r="35" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="3"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2668,7 +2692,7 @@
       <c r="AP35"/>
     </row>
     <row r="36" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="3"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -2712,7 +2736,7 @@
       <c r="AP36"/>
     </row>
     <row r="37" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -2756,15 +2780,15 @@
       <c r="AP37"/>
     </row>
     <row r="38" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="39"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -2801,7 +2825,7 @@
       <c r="AO38"/>
     </row>
     <row r="39" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="3"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -2845,7 +2869,7 @@
       <c r="AP39"/>
     </row>
     <row r="40" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="3"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -2889,7 +2913,7 @@
       <c r="AP40"/>
     </row>
     <row r="41" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="3"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -2933,7 +2957,7 @@
       <c r="AP41"/>
     </row>
     <row r="42" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="4"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
@@ -2977,7 +3001,7 @@
       <c r="AP42"/>
     </row>
     <row r="43" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="25"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="4"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>

--- a/Tableau de synthèse - Épreuve E4.xlsx
+++ b/Tableau de synthèse - Épreuve E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stagiaireit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A00DE14-6027-43C9-A50D-F74F8910832E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5C6C3D-B81C-4C22-89A7-F1EF164E48CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tableau de synthèse Épreuve E4'!$A$1:$H$49</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tableau de synthèse des réalisations professionnelles </t>
-  </si>
-  <si>
-    <t>Option :</t>
   </si>
   <si>
     <t>▸Recenser et identifier les ressources numériques 
@@ -94,9 +91,6 @@
     <t>NOM et prénom : TERRIER Evann</t>
   </si>
   <si>
-    <t>Centre de formation : Lycée George Brassens BTS SIO 1ere année</t>
-  </si>
-  <si>
     <t xml:space="preserve">Utilisation de GIT / GIT HUB pour un travaille en groupe et mettre en commun les différents travaux. </t>
   </si>
   <si>
@@ -164,9 +158,6 @@
   </si>
   <si>
     <t>Modification d’un formulaire ou d’une fonctionnalité après retour enseignant</t>
-  </si>
-  <si>
-    <t>SLAM</t>
   </si>
   <si>
     <r>
@@ -204,10 +195,96 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">   02/09/2024 - 27/06/2025</t>
-  </si>
-  <si>
     <t>Rédaction d'une procédure reproduisant les étapes de configuration de mon projet dans mon stage</t>
+  </si>
+  <si>
+    <t>Centre de formation : Lycée George Brassens BTS Services Informatiques aux Organisations</t>
+  </si>
+  <si>
+    <t>Programmation en C#</t>
+  </si>
+  <si>
+    <t>Utilisation de l'environnment Git Extension et Visual Studio</t>
+  </si>
+  <si>
+    <t>Immersion en entreprise</t>
+  </si>
+  <si>
+    <t>Découverte de la documentation Google Analytics</t>
+  </si>
+  <si>
+    <t>Envoie des données à différents pole de l'entreprise                        ( Pôle Infomatique, Pôle Achat, Pôle Marketing )</t>
+  </si>
+  <si>
+    <t>Utilisation d'un WebService pour communiquer avec Sage</t>
+  </si>
+  <si>
+    <t>Création et utilisation de requete HTTP construite avec SOAP</t>
+  </si>
+  <si>
+    <t>Rédaction d'une procédure reproduisant les étapes de configuration pour mon projet sur Google Analytics 4</t>
+  </si>
+  <si>
+    <t>Apprentissage de concepte évolué de la Progammation Orientée Objet, principe des interfaces, multi objet</t>
+  </si>
+  <si>
+    <t>Option | Solutions logicielles et applications métiers / SLAM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 02/09/2024 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 27/06/2025</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> 10/04/2025 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 25/05/2025</t>
+    </r>
+  </si>
+  <si>
+    <t>Récupération des données de l'entrrise OOGarden via      Google Analytics 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convertition des données sous différents format  ( Excel, Goolgle Seet, Drive, Requete SOAP )  </t>
   </si>
 </sst>
 </file>
@@ -217,7 +294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -246,12 +323,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="12"/>
       <name val="Arial"/>
@@ -260,12 +331,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -389,6 +454,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -670,9 +755,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -680,13 +765,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,14 +774,104 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -710,121 +879,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1170,10 +1262,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP89"/>
+  <dimension ref="A1:AP95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1190,98 +1282,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:42" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+    </row>
+    <row r="3" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="10"/>
-    </row>
-    <row r="2" spans="1:42" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-    </row>
-    <row r="3" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="36"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="49"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:42" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="15" t="s">
+      <c r="A4" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:42" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:42" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="47" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="40" t="s">
+      <c r="D6" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="E6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="F6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="G6" s="27" t="s">
         <v>10</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>11</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -1320,15 +1410,15 @@
       <c r="AP6"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="A7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="45"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -1366,17 +1456,17 @@
       <c r="AP7"/>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="5"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
@@ -1414,17 +1504,17 @@
       <c r="AP8"/>
     </row>
     <row r="9" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="A9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9"/>
@@ -1462,17 +1552,17 @@
       <c r="AP9"/>
     </row>
     <row r="10" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
@@ -1510,17 +1600,17 @@
       <c r="AP10"/>
     </row>
     <row r="11" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
+      <c r="A11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
       <c r="H11"/>
       <c r="I11"/>
       <c r="J11"/>
@@ -1558,17 +1648,17 @@
       <c r="AP11"/>
     </row>
     <row r="12" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="7"/>
+      <c r="A12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="5"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
@@ -1606,17 +1696,17 @@
       <c r="AP12"/>
     </row>
     <row r="13" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="24"/>
+      <c r="A13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="17"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13"/>
@@ -1654,17 +1744,17 @@
       <c r="AP13"/>
     </row>
     <row r="14" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="24"/>
+      <c r="A14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="17"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
@@ -1702,17 +1792,17 @@
       <c r="AP14"/>
     </row>
     <row r="15" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="14"/>
+      <c r="A15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="8"/>
       <c r="H15"/>
       <c r="I15"/>
       <c r="J15"/>
@@ -1750,17 +1840,17 @@
       <c r="AP15"/>
     </row>
     <row r="16" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="14"/>
+      <c r="A16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="8"/>
       <c r="H16"/>
       <c r="I16"/>
       <c r="J16"/>
@@ -1798,17 +1888,17 @@
       <c r="AP16"/>
     </row>
     <row r="17" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
+      <c r="A17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -1846,17 +1936,17 @@
       <c r="AP17"/>
     </row>
     <row r="18" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -1894,17 +1984,17 @@
       <c r="AP18"/>
     </row>
     <row r="19" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="7"/>
+      <c r="A19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -1942,17 +2032,17 @@
       <c r="AP19"/>
     </row>
     <row r="20" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="7"/>
+      <c r="A20" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -1990,17 +2080,17 @@
       <c r="AP20"/>
     </row>
     <row r="21" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
+      <c r="A21" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -2038,17 +2128,17 @@
       <c r="AP21"/>
     </row>
     <row r="22" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="7"/>
+      <c r="A22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -2086,17 +2176,17 @@
       <c r="AP22"/>
     </row>
     <row r="23" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="7"/>
+      <c r="A23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="5"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23"/>
@@ -2134,17 +2224,17 @@
       <c r="AP23"/>
     </row>
     <row r="24" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="7"/>
+      <c r="A24" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="5"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24"/>
@@ -2182,17 +2272,17 @@
       <c r="AP24"/>
     </row>
     <row r="25" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="5"/>
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25"/>
@@ -2230,17 +2320,17 @@
       <c r="AP25"/>
     </row>
     <row r="26" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="24"/>
+      <c r="A26" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="17"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26"/>
@@ -2278,17 +2368,17 @@
       <c r="AP26"/>
     </row>
     <row r="27" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="24"/>
+      <c r="A27" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="17"/>
       <c r="H27"/>
       <c r="I27"/>
       <c r="J27"/>
@@ -2326,17 +2416,17 @@
       <c r="AP27"/>
     </row>
     <row r="28" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="24"/>
+      <c r="A28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="17"/>
       <c r="H28"/>
       <c r="I28"/>
       <c r="J28"/>
@@ -2374,17 +2464,17 @@
       <c r="AP28"/>
     </row>
     <row r="29" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="24"/>
+      <c r="A29" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="17"/>
       <c r="H29"/>
       <c r="I29"/>
       <c r="J29"/>
@@ -2422,17 +2512,17 @@
       <c r="AP29"/>
     </row>
     <row r="30" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="14"/>
+      <c r="A30" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="8"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
@@ -2470,15 +2560,15 @@
       <c r="AP30"/>
     </row>
     <row r="31" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="32"/>
+      <c r="A31" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2516,13 +2606,17 @@
       <c r="AP31"/>
     </row>
     <row r="32" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
+      <c r="A32" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
@@ -2560,13 +2654,17 @@
       <c r="AP32"/>
     </row>
     <row r="33" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="22"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
+      <c r="A33" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="35"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -2604,13 +2702,17 @@
       <c r="AP33"/>
     </row>
     <row r="34" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="22"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
+      <c r="A34" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="35"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
@@ -2648,13 +2750,17 @@
       <c r="AP34"/>
     </row>
     <row r="35" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="22"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
+      <c r="A35" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="35"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -2692,13 +2798,17 @@
       <c r="AP35"/>
     </row>
     <row r="36" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="22"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
+      <c r="A36" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="35"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
@@ -2735,14 +2845,18 @@
       <c r="AO36"/>
       <c r="AP36"/>
     </row>
-    <row r="37" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
+    <row r="37" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="35"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
@@ -2780,15 +2894,17 @@
       <c r="AP37"/>
     </row>
     <row r="38" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="32"/>
+      <c r="A38" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="35"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -2823,15 +2939,20 @@
       <c r="AM38"/>
       <c r="AN38"/>
       <c r="AO38"/>
+      <c r="AP38"/>
     </row>
     <row r="39" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="22"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="7"/>
+      <c r="A39" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="35"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
@@ -2869,13 +2990,17 @@
       <c r="AP39"/>
     </row>
     <row r="40" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="22"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
+      <c r="A40" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="35"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
@@ -2913,13 +3038,17 @@
       <c r="AP40"/>
     </row>
     <row r="41" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="22"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="7"/>
+      <c r="A41" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="35"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
@@ -2957,13 +3086,17 @@
       <c r="AP41"/>
     </row>
     <row r="42" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="22"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="9"/>
+      <c r="A42" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="35"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
@@ -3000,14 +3133,16 @@
       <c r="AO42"/>
       <c r="AP42"/>
     </row>
-    <row r="43" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="22"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
+    <row r="43" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="37"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
@@ -3044,27 +3179,294 @@
       <c r="AO43"/>
       <c r="AP43"/>
     </row>
-    <row r="44" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="45"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+      <c r="O44"/>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+      <c r="AL44"/>
+      <c r="AM44"/>
+      <c r="AN44"/>
+      <c r="AO44"/>
+    </row>
+    <row r="45" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="35"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+      <c r="AL45"/>
+      <c r="AM45"/>
+      <c r="AN45"/>
+      <c r="AO45"/>
+      <c r="AP45"/>
+    </row>
+    <row r="46" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="16"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="35"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+      <c r="AL46"/>
+      <c r="AM46"/>
+      <c r="AN46"/>
+      <c r="AO46"/>
+      <c r="AP46"/>
+    </row>
+    <row r="47" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="16"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="35"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+      <c r="AL47"/>
+      <c r="AM47"/>
+      <c r="AN47"/>
+      <c r="AO47"/>
+      <c r="AP47"/>
+    </row>
+    <row r="48" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="16"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="40"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+      <c r="AL48"/>
+      <c r="AM48"/>
+      <c r="AN48"/>
+      <c r="AO48"/>
+      <c r="AP48"/>
+    </row>
+    <row r="49" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="16"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="40"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+      <c r="AL49"/>
+      <c r="AM49"/>
+      <c r="AN49"/>
+      <c r="AO49"/>
+      <c r="AP49"/>
+    </row>
+    <row r="50" spans="1:42" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+    </row>
+    <row r="51" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="65" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="66" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="67" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3086,27 +3488,33 @@
     <row r="83" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="85" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86"/>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86"/>
-      <c r="G86"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89"/>
+    <row r="86" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" spans="1:7" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A44:G44"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>

--- a/Tableau de synthèse - Épreuve E4.xlsx
+++ b/Tableau de synthèse - Épreuve E4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stagiaireit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stagiaireit\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5C6C3D-B81C-4C22-89A7-F1EF164E48CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8186D34A-4C09-4BF8-8202-87EBD3BA3C61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="58">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -195,9 +195,6 @@
     </r>
   </si>
   <si>
-    <t>Rédaction d'une procédure reproduisant les étapes de configuration de mon projet dans mon stage</t>
-  </si>
-  <si>
     <t>Centre de formation : Lycée George Brassens BTS Services Informatiques aux Organisations</t>
   </si>
   <si>
@@ -223,9 +220,6 @@
   </si>
   <si>
     <t>Rédaction d'une procédure reproduisant les étapes de configuration pour mon projet sur Google Analytics 4</t>
-  </si>
-  <si>
-    <t>Apprentissage de concepte évolué de la Progammation Orientée Objet, principe des interfaces, multi objet</t>
   </si>
   <si>
     <t>Option | Solutions logicielles et applications métiers / SLAM</t>
@@ -284,7 +278,16 @@
     <t>Récupération des données de l'entrrise OOGarden via      Google Analytics 4</t>
   </si>
   <si>
-    <t xml:space="preserve">Convertition des données sous différents format  ( Excel, Goolgle Seet, Drive, Requete SOAP )  </t>
+    <t>Apprentissage de concepte évolué de la Progammation Orientée Objet, principe des interfaces, multi objet …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convertion des données sous différents format  ( Excel, Goolgle Seet, Drive, Requete SOAP )  </t>
+  </si>
+  <si>
+    <t>Création d'un nouveau repository Github de mon projet</t>
+  </si>
+  <si>
+    <t>Rédaction d'un journal de bord pour le suivie de mon stage auprès de mes professeurs</t>
   </si>
 </sst>
 </file>
@@ -757,7 +760,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -819,9 +822,6 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -865,9 +865,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1264,8 +1261,8 @@
   </sheetPr>
   <dimension ref="A1:AP95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1282,95 +1279,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:42" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
     </row>
     <row r="3" spans="1:42" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="47" t="s">
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="49"/>
+      <c r="G3" s="47"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:42" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="A4" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:42" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="F5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="23" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>10</v>
       </c>
       <c r="H6"/>
@@ -1410,15 +1407,15 @@
       <c r="AP6"/>
     </row>
     <row r="7" spans="1:42" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="45"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
@@ -1459,8 +1456,8 @@
       <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="22" t="s">
-        <v>53</v>
+      <c r="B8" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4"/>
@@ -1507,8 +1504,8 @@
       <c r="A9" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>53</v>
+      <c r="B9" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1555,8 +1552,8 @@
       <c r="A10" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="22" t="s">
-        <v>53</v>
+      <c r="B10" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="4"/>
@@ -1603,8 +1600,8 @@
       <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="22" t="s">
-        <v>53</v>
+      <c r="B11" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1651,8 +1648,8 @@
       <c r="A12" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>53</v>
+      <c r="B12" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1699,8 +1696,8 @@
       <c r="A13" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>53</v>
+      <c r="B13" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1747,8 +1744,8 @@
       <c r="A14" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="22" t="s">
-        <v>53</v>
+      <c r="B14" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1795,8 +1792,8 @@
       <c r="A15" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>53</v>
+      <c r="B15" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="4"/>
@@ -1843,8 +1840,8 @@
       <c r="A16" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>53</v>
+      <c r="B16" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="4"/>
@@ -1891,8 +1888,8 @@
       <c r="A17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="22" t="s">
-        <v>53</v>
+      <c r="B17" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="7"/>
@@ -1939,8 +1936,8 @@
       <c r="A18" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="22" t="s">
-        <v>53</v>
+      <c r="B18" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="7"/>
@@ -1987,8 +1984,8 @@
       <c r="A19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>53</v>
+      <c r="B19" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="7"/>
@@ -2035,8 +2032,8 @@
       <c r="A20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>53</v>
+      <c r="B20" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="7"/>
@@ -2083,8 +2080,8 @@
       <c r="A21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>53</v>
+      <c r="B21" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="20"/>
@@ -2131,8 +2128,8 @@
       <c r="A22" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>53</v>
+      <c r="B22" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -2179,8 +2176,8 @@
       <c r="A23" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>53</v>
+      <c r="B23" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -2227,8 +2224,8 @@
       <c r="A24" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>53</v>
+      <c r="B24" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -2275,8 +2272,8 @@
       <c r="A25" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>53</v>
+      <c r="B25" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -2323,8 +2320,8 @@
       <c r="A26" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>53</v>
+      <c r="B26" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2371,8 +2368,8 @@
       <c r="A27" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>53</v>
+      <c r="B27" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2419,8 +2416,8 @@
       <c r="A28" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>53</v>
+      <c r="B28" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2463,12 +2460,12 @@
       <c r="AO28"/>
       <c r="AP28"/>
     </row>
-    <row r="29" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="22" t="s">
-        <v>53</v>
+      <c r="B29" s="21" t="s">
+        <v>51</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2511,18 +2508,16 @@
       <c r="AO29"/>
       <c r="AP29"/>
     </row>
-    <row r="30" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="8"/>
+    <row r="30" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
       <c r="H30"/>
       <c r="I30"/>
       <c r="J30"/>
@@ -2560,15 +2555,17 @@
       <c r="AP30"/>
     </row>
     <row r="31" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
+      <c r="A31" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31"/>
@@ -2606,17 +2603,17 @@
       <c r="AP31"/>
     </row>
     <row r="32" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33" t="s">
+      <c r="A32" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="5"/>
+      <c r="B32" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="34"/>
       <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
@@ -2654,17 +2651,17 @@
       <c r="AP32"/>
     </row>
     <row r="33" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>54</v>
+      <c r="B33" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="35"/>
+      <c r="G33" s="17"/>
       <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
@@ -2702,17 +2699,17 @@
       <c r="AP33"/>
     </row>
     <row r="34" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="22" t="s">
-        <v>54</v>
+      <c r="B34" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="35"/>
+      <c r="G34" s="34"/>
       <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
@@ -2751,16 +2748,16 @@
     </row>
     <row r="35" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="35"/>
+      <c r="G35" s="34"/>
       <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
@@ -2801,14 +2798,14 @@
       <c r="A36" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="22" t="s">
-        <v>54</v>
+      <c r="B36" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="35"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="34"/>
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
@@ -2847,16 +2844,16 @@
     </row>
     <row r="37" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>54</v>
+        <v>46</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="35"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="34"/>
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
@@ -2897,14 +2894,14 @@
       <c r="A38" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="22" t="s">
-        <v>54</v>
+      <c r="B38" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="35"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="34"/>
       <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
@@ -2945,14 +2942,14 @@
       <c r="A39" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="22" t="s">
-        <v>54</v>
+      <c r="B39" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="35"/>
+      <c r="G39" s="34"/>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
@@ -2993,14 +2990,14 @@
       <c r="A40" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="22" t="s">
-        <v>54</v>
+      <c r="B40" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="35"/>
+      <c r="G40" s="17"/>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
@@ -3039,16 +3036,16 @@
     </row>
     <row r="41" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="22" t="s">
         <v>54</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>52</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
-      <c r="G41" s="35"/>
+      <c r="G41" s="34"/>
       <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
@@ -3087,16 +3084,16 @@
     </row>
     <row r="42" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="35"/>
+        <v>56</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="17"/>
       <c r="H42"/>
       <c r="I42"/>
       <c r="J42"/>
@@ -3134,15 +3131,17 @@
       <c r="AP42"/>
     </row>
     <row r="43" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="37"/>
+      <c r="A43" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43" s="35"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
       <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
@@ -3180,15 +3179,15 @@
       <c r="AP43"/>
     </row>
     <row r="44" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="45"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="43"/>
       <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
@@ -3226,12 +3225,12 @@
     </row>
     <row r="45" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="16"/>
-      <c r="B45" s="34"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
-      <c r="G45" s="35"/>
+      <c r="G45" s="34"/>
       <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
@@ -3270,12 +3269,12 @@
     </row>
     <row r="46" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="16"/>
-      <c r="B46" s="34"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="35"/>
+      <c r="G46" s="34"/>
       <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
@@ -3314,12 +3313,12 @@
     </row>
     <row r="47" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16"/>
-      <c r="B47" s="34"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="35"/>
+      <c r="G47" s="34"/>
       <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
@@ -3358,12 +3357,12 @@
     </row>
     <row r="48" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="40"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="38"/>
       <c r="H48"/>
       <c r="I48"/>
       <c r="J48"/>
@@ -3402,12 +3401,12 @@
     </row>
     <row r="49" spans="1:42" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="16"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="40"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="37"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="38"/>
       <c r="H49"/>
       <c r="I49"/>
       <c r="J49"/>
@@ -3445,13 +3444,13 @@
       <c r="AP49"/>
     </row>
     <row r="50" spans="1:42" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="41"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
     </row>
     <row r="51" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="1:42" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3515,7 +3514,7 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A44:G44"/>
-    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A30:G30"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
